--- a/results/I3_N5_M3_T45_C150_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.00746666921155</v>
+        <v>28.51204269596068</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4709999561309814</v>
+        <v>0.5180001258850098</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.72746666901232</v>
+        <v>28.51204269596069</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.280000000199223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.82484646040544</v>
+        <v>41.82484646040543</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.64971265316876</v>
+        <v>34.14888130986245</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>39.85439022078044</v>
       </c>
     </row>
     <row r="8">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000051</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000034</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000041</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000029</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000368</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000001841</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.97000000002299</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000002206</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000002219</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27000000002408</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>136.5050000000808</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>141.3699999999755</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>151.6400000000779</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>147.3349999999739</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>141.25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>124.9600000000501</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>138.0800000000546</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>133.1649999999554</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>142.2699999999495</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>140.5150000000504</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.4850000000115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.76500000001033</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.50500000001013</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.0600000000104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.45</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000001666</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>136.5050000001029</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>141.3699999999723</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>151.6400000001002</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>147.3349999999707</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>124.960000000081</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>138.0800000000945</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>133.164999999938</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>142.2699999999321</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>140.5150000000959</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1.640000000099612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,17 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
